--- a/Transfer/PrepareDoc.xlsx
+++ b/Transfer/PrepareDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\Transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05735810-9C47-4DC6-8E82-3E060B9A757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C986F9-1CFC-445E-930D-4D187FFE8518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{884A3364-B002-4ED2-84AF-6D6484D03A3F}"/>
+    <workbookView xWindow="32310" yWindow="150" windowWidth="17040" windowHeight="15330" xr2:uid="{884A3364-B002-4ED2-84AF-6D6484D03A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>2. 제출서류</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>차량 등록이 필요한가?</t>
+  </si>
+  <si>
+    <t>소중한메디케어 문의</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,12 +247,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -327,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -356,53 +353,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,7 +735,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +826,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -869,16 +863,16 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -887,20 +881,20 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="24">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="3">
@@ -913,38 +907,38 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="22">
-        <v>1</v>
-      </c>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -984,7 +978,7 @@
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="3">
@@ -1002,7 +996,7 @@
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="3">
@@ -1015,16 +1009,19 @@
       <c r="F16" s="8"/>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="11"/>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="11"/>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="11"/>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="11"/>
       <c r="B22" t="s">
         <v>42</v>
       </c>

--- a/Transfer/PrepareDoc.xlsx
+++ b/Transfer/PrepareDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\Transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C986F9-1CFC-445E-930D-4D187FFE8518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B774AFB-7A82-462F-8F8F-A5420E70C3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="150" windowWidth="17040" windowHeight="15330" xr2:uid="{884A3364-B002-4ED2-84AF-6D6484D03A3F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{884A3364-B002-4ED2-84AF-6D6484D03A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>2. 제출서류</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>차량 등록이 필요한가?</t>
-  </si>
-  <si>
-    <t>소중한메디케어 문의</t>
   </si>
 </sst>
 </file>
@@ -247,13 +244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -359,44 +356,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A80BB9E-136F-499F-A11E-3D8D71020A05}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3">
@@ -794,7 +794,7 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3">
@@ -814,7 +814,7 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3">
@@ -830,7 +830,7 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3">
@@ -863,16 +863,16 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -881,17 +881,17 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
+      <c r="A10" s="16">
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1008,21 +1008,9 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" t="s">
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Transfer/PrepareDoc.xlsx
+++ b/Transfer/PrepareDoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\Transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B774AFB-7A82-462F-8F8F-A5420E70C3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F63610-0B44-40E0-9444-DFA2C5D76AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{884A3364-B002-4ED2-84AF-6D6484D03A3F}"/>
   </bookViews>
@@ -371,6 +371,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,19 +392,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,7 +735,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3">
@@ -863,16 +863,16 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17">
-        <v>1</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -881,10 +881,10 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>

--- a/Transfer/PrepareDoc.xlsx
+++ b/Transfer/PrepareDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\Transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F63610-0B44-40E0-9444-DFA2C5D76AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15882B92-F372-42EF-8A78-A51094551DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{884A3364-B002-4ED2-84AF-6D6484D03A3F}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{884A3364-B002-4ED2-84AF-6D6484D03A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,6 +380,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,12 +396,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,7 +735,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,13 +866,13 @@
       <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -882,9 +882,9 @@
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
@@ -944,7 +944,7 @@
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="3">
@@ -962,7 +962,7 @@
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="3">

--- a/Transfer/PrepareDoc.xlsx
+++ b/Transfer/PrepareDoc.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\Transfer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\01_Repo\01_doc\Transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15882B92-F372-42EF-8A78-A51094551DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF10AD2-10CE-429A-9C7D-D5FF77E6794D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{884A3364-B002-4ED2-84AF-6D6484D03A3F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{884A3364-B002-4ED2-84AF-6D6484D03A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>2. 제출서류</t>
   </si>
@@ -98,9 +96,6 @@
     <t>반명함판 사진</t>
   </si>
   <si>
-    <t>사진.JPG 포함 경영지원팀 제출</t>
-  </si>
-  <si>
     <t>사원증 제작용</t>
   </si>
   <si>
@@ -165,17 +160,51 @@
   </si>
   <si>
     <t>차량 등록이 필요한가?</t>
+  </si>
+  <si>
+    <t>개인정보의 수집/이용에 관한 동의서</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>사진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.JPG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> 포함 경영지원팀 제출</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -213,6 +242,20 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -255,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -317,11 +360,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -398,9 +452,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -735,24 +798,24 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -772,7 +835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -790,7 +853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -810,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -826,7 +889,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -844,7 +907,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -855,47 +918,47 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
       <c r="D9" s="25"/>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="16">
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -906,12 +969,12 @@
       <c r="E10" s="5"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
@@ -920,98 +983,110 @@
         <v>11</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="27">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1021,6 +1096,7 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>